--- a/biology/Histoire de la zoologie et de la botanique/Sveinn_Pálsson/Sveinn_Pálsson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sveinn_Pálsson/Sveinn_Pálsson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sveinn_P%C3%A1lsson</t>
+          <t>Sveinn_Pálsson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sveinn Pálsson (1762 - 1840) est un médecin et naturaliste islandais ayant observé les différents volcans de son pays dans les années 1790. Il est connu pour être le premier homme à avoir gravi le volcan islandais Eyjafjöll, le 16 août 1793[1], ainsi que le Hvannadalshnjúkur, le plus haut sommet d'Islande (2 110 mètres d'altitude), le 11 août 1794.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sveinn Pálsson (1762 - 1840) est un médecin et naturaliste islandais ayant observé les différents volcans de son pays dans les années 1790. Il est connu pour être le premier homme à avoir gravi le volcan islandais Eyjafjöll, le 16 août 1793, ainsi que le Hvannadalshnjúkur, le plus haut sommet d'Islande (2 110 mètres d'altitude), le 11 août 1794.
 </t>
         </is>
       </c>
